--- a/docs/HourList.xlsx
+++ b/docs/HourList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\Input\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTL3\SYPRRE\SYP-Projekt\Input-docs\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BD7660-77EA-4AC3-8034-80111791B026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2392FBC6-1AD7-48F4-876C-05FF6D0B9088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="3750" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Makro1" sheetId="2" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>Website Entwicklung inklusive Login - Backend-Entwicklung</t>
   </si>
   <si>
-    <t>2 Stunden</t>
-  </si>
-  <si>
     <t>3 Stunden</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Zeit</t>
+  </si>
+  <si>
+    <t>5 Stunden</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -594,29 +594,29 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="118.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="118.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -638,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -671,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -682,7 +682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -693,16 +693,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -713,16 +713,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>0</v>
@@ -731,27 +731,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -760,30 +760,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
@@ -792,9 +792,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
@@ -803,16 +803,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
@@ -821,34 +821,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" cm="1">
-        <f t="array" ref="C26">(ZeitSumme(C3:C25)/60)</f>
-        <v>19.25</v>
+    <row r="26" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="7" t="e" cm="1">
+        <f t="array" aca="1" ref="C26" ca="1">(ZeitSumme(C3:C25)/60)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/HourList.xlsx
+++ b/docs/HourList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTL3\SYPRRE\SYP-Projekt\Input-docs\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2392FBC6-1AD7-48F4-876C-05FF6D0B9088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0815FA5C-FD1C-43A4-9D48-D38A3E778ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,7 +154,7 @@
     <t>Zeit</t>
   </si>
   <si>
-    <t>5 Stunden</t>
+    <t>9 Stunden</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
